--- a/91桃園.xlsx
+++ b/91桃園.xlsx
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>研究所肄業</t>
-  </si>
-  <si>
-    <t>大學肄業</t>
-  </si>
-  <si>
-    <t>國小肄業</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>自修</t>
   </si>
@@ -41,9 +32,6 @@
     <t>不識字</t>
   </si>
   <si>
-    <t>總計</t>
-  </si>
-  <si>
     <t>edu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,15 +48,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大專肄業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國中肄業</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中(職)肄業</t>
+    <t>研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大專</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中(職)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,15 +101,7 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,16 +176,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -202,13 +194,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D10"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -501,110 +490,110 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>1606</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1057</v>
+        <v>4158</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3061</v>
       </c>
       <c r="D2" s="6">
-        <v>549</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>12576</v>
-      </c>
-      <c r="C3" s="7">
-        <v>6518</v>
+        <v>24434</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13435</v>
       </c>
       <c r="D3" s="6">
-        <v>6058</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>8505</v>
-      </c>
-      <c r="C4" s="8">
-        <v>4548</v>
-      </c>
-      <c r="D4" s="9">
-        <v>3957</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.2">
+        <v>31362</v>
+      </c>
+      <c r="C4" s="7">
+        <v>16291</v>
+      </c>
+      <c r="D4" s="8">
+        <v>15143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>26706</v>
-      </c>
-      <c r="C5" s="8">
-        <v>14488</v>
-      </c>
-      <c r="D5" s="9">
-        <v>12218</v>
+        <v>63004</v>
+      </c>
+      <c r="C5" s="7">
+        <v>29522</v>
+      </c>
+      <c r="D5" s="8">
+        <v>33482</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>13025</v>
-      </c>
-      <c r="C6" s="7">
-        <v>6996</v>
+        <v>29448</v>
+      </c>
+      <c r="C6" s="6">
+        <v>14533</v>
       </c>
       <c r="D6" s="6">
-        <v>6029</v>
+        <v>14915</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>8349</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3517</v>
+        <v>31794</v>
+      </c>
+      <c r="C7" s="6">
+        <v>12292</v>
       </c>
       <c r="D7" s="6">
-        <v>4832</v>
+        <v>19502</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="6">
         <v>896</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>451</v>
       </c>
       <c r="D8" s="6">
@@ -613,30 +602,16 @@
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6">
         <v>6607</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1214</v>
       </c>
       <c r="D9" s="6">
         <v>5393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6">
-        <v>263072</v>
-      </c>
-      <c r="C10" s="7">
-        <v>128206</v>
-      </c>
-      <c r="D10" s="6">
-        <v>134866</v>
       </c>
     </row>
   </sheetData>
